--- a/resources/objects/stimuli/stimuli.xlsx
+++ b/resources/objects/stimuli/stimuli.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agust\OneDrive\Desktop\CNC\Paradigmas\Python\Rutvik\picture-plausability\resources\objects\stimuli\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agust\OneDrive\Desktop\CNC\Paradigmas\Python\Rutvik\rutvik-picture-plausability\resources\objects\stimuli\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{614039D7-1E10-465B-A08F-B1DDC79EDC59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1847C4B-1190-4675-BEC3-9314501FBD0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C37A7FB8-9F08-4596-813A-61242B3CD22C}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{C37A7FB8-9F08-4596-813A-61242B3CD22C}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -74,9 +74,6 @@
     <t>N</t>
   </si>
   <si>
-    <t>j</t>
-  </si>
-  <si>
     <t>broom</t>
   </si>
   <si>
@@ -170,9 +167,6 @@
     <t>na</t>
   </si>
   <si>
-    <t>k</t>
-  </si>
-  <si>
     <t>x2</t>
   </si>
   <si>
@@ -303,6 +297,12 @@
   </si>
   <si>
     <t>resources/pictures/im03.jpg</t>
+  </si>
+  <si>
+    <t>left</t>
+  </si>
+  <si>
+    <t>right</t>
   </si>
 </sst>
 </file>
@@ -705,8 +705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4364C209-0A91-4EC2-9F7A-D0E718417FCF}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -753,14 +753,14 @@
       <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" t="s">
         <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>12</v>
+        <v>57</v>
+      </c>
+      <c r="G2" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -768,19 +768,19 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" t="s">
         <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>60</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>12</v>
+        <v>58</v>
+      </c>
+      <c r="G3" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -788,19 +788,19 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" t="s">
         <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>12</v>
+        <v>59</v>
+      </c>
+      <c r="G4" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -808,19 +808,19 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
         <v>17</v>
       </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" t="s">
         <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>62</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>12</v>
+        <v>60</v>
+      </c>
+      <c r="G5" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -828,19 +828,19 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
         <v>19</v>
       </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" t="s">
         <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>63</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>12</v>
+        <v>61</v>
+      </c>
+      <c r="G6" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -848,19 +848,19 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
         <v>21</v>
       </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" t="s">
         <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>64</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>12</v>
+        <v>62</v>
+      </c>
+      <c r="G7" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -868,19 +868,19 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
         <v>23</v>
       </c>
-      <c r="D8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" t="s">
         <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>65</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>12</v>
+        <v>63</v>
+      </c>
+      <c r="G8" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -888,19 +888,19 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>25</v>
       </c>
-      <c r="D9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" t="s">
         <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>66</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>12</v>
+        <v>64</v>
+      </c>
+      <c r="G9" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -908,19 +908,19 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>27</v>
       </c>
-      <c r="D10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" t="s">
         <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>67</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>12</v>
+        <v>65</v>
+      </c>
+      <c r="G10" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -928,19 +928,19 @@
         <v>8</v>
       </c>
       <c r="C11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" t="s">
         <v>29</v>
       </c>
-      <c r="D11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" t="s">
         <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>68</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>12</v>
+        <v>66</v>
+      </c>
+      <c r="G11" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -948,19 +948,19 @@
         <v>8</v>
       </c>
       <c r="C12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" t="s">
         <v>31</v>
       </c>
-      <c r="D12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" t="s">
         <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>69</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>12</v>
+        <v>67</v>
+      </c>
+      <c r="G12" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -968,19 +968,19 @@
         <v>8</v>
       </c>
       <c r="C13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" t="s">
         <v>33</v>
       </c>
-      <c r="D13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" t="s">
         <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>70</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>12</v>
+        <v>68</v>
+      </c>
+      <c r="G13" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -988,19 +988,19 @@
         <v>8</v>
       </c>
       <c r="C14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" t="s">
         <v>35</v>
       </c>
-      <c r="D14" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" t="s">
         <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>71</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>12</v>
+        <v>69</v>
+      </c>
+      <c r="G14" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -1008,19 +1008,19 @@
         <v>8</v>
       </c>
       <c r="C15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" t="s">
         <v>37</v>
       </c>
-      <c r="D15" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" t="s">
         <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>72</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>12</v>
+        <v>70</v>
+      </c>
+      <c r="G15" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -1028,319 +1028,319 @@
         <v>8</v>
       </c>
       <c r="C16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" t="s">
         <v>39</v>
       </c>
-      <c r="D16" t="s">
-        <v>40</v>
-      </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" t="s">
         <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>73</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>12</v>
+        <v>71</v>
+      </c>
+      <c r="G16" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" t="s">
         <v>41</v>
       </c>
-      <c r="C17" t="s">
-        <v>42</v>
-      </c>
       <c r="D17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E17" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" t="s">
         <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>74</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>44</v>
+        <v>72</v>
+      </c>
+      <c r="G17" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D18" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" t="s">
         <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>75</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>44</v>
+        <v>73</v>
+      </c>
+      <c r="G18" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D19" t="s">
-        <v>43</v>
-      </c>
-      <c r="E19" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" t="s">
         <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>76</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>44</v>
+        <v>74</v>
+      </c>
+      <c r="G19" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D20" t="s">
-        <v>43</v>
-      </c>
-      <c r="E20" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" t="s">
         <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>77</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>44</v>
+        <v>75</v>
+      </c>
+      <c r="G20" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C21" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D21" t="s">
-        <v>43</v>
-      </c>
-      <c r="E21" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" t="s">
         <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>78</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>44</v>
+        <v>76</v>
+      </c>
+      <c r="G21" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C22" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D22" t="s">
-        <v>43</v>
-      </c>
-      <c r="E22" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" t="s">
         <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>79</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>44</v>
+        <v>77</v>
+      </c>
+      <c r="G22" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D23" t="s">
-        <v>43</v>
-      </c>
-      <c r="E23" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" t="s">
         <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>80</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>44</v>
+        <v>78</v>
+      </c>
+      <c r="G23" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C24" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D24" t="s">
-        <v>43</v>
-      </c>
-      <c r="E24" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" t="s">
         <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>81</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>44</v>
+        <v>79</v>
+      </c>
+      <c r="G24" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C25" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D25" t="s">
-        <v>43</v>
-      </c>
-      <c r="E25" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" t="s">
         <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>82</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>44</v>
+        <v>80</v>
+      </c>
+      <c r="G25" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C26" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D26" t="s">
-        <v>43</v>
-      </c>
-      <c r="E26" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E26" t="s">
         <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>83</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>44</v>
+        <v>81</v>
+      </c>
+      <c r="G26" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C27" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D27" t="s">
-        <v>43</v>
-      </c>
-      <c r="E27" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E27" t="s">
         <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>84</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>44</v>
+        <v>82</v>
+      </c>
+      <c r="G27" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C28" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D28" t="s">
-        <v>43</v>
-      </c>
-      <c r="E28" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E28" t="s">
         <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>85</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>44</v>
+        <v>83</v>
+      </c>
+      <c r="G28" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C29" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D29" t="s">
-        <v>43</v>
-      </c>
-      <c r="E29" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E29" t="s">
         <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>86</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>44</v>
+        <v>84</v>
+      </c>
+      <c r="G29" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C30" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D30" t="s">
-        <v>43</v>
-      </c>
-      <c r="E30" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E30" t="s">
         <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>87</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>44</v>
+        <v>85</v>
+      </c>
+      <c r="G30" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C31" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D31" t="s">
-        <v>43</v>
-      </c>
-      <c r="E31" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E31" t="s">
         <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>88</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>44</v>
+        <v>86</v>
+      </c>
+      <c r="G31" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
